--- a/Perguntas.xlsx
+++ b/Perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\CM_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E089C3-051C-4D5A-93B0-159D45B2D143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B854FF-8FDF-4F47-B477-52445097CD3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFD7278A-E84D-4660-8CE9-3B287DDB2B83}"/>
   </bookViews>
@@ -279,9 +279,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +691,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,10 +716,10 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -727,25 +727,25 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -753,265 +753,265 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
       <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="13"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="13"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="13"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="13"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="13"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="13"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="13"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
